--- a/RUDN/Importance/Varible_f_reg_in_RUS.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_RUS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
   <si>
     <t>F-value</t>
   </si>
@@ -25,28 +25,118 @@
     <t>Series Name</t>
   </si>
   <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Urban population growth (annual %)</t>
   </si>
   <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 17, female, interpolated</t>
@@ -58,253 +148,448 @@
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
   </si>
   <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
-    <t>Years</t>
+    <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
     <t>Male population 55-59</t>
   </si>
   <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
     <t>Female population 55-59</t>
   </si>
   <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
     <t>Population ages 55-59, male (% of male population)</t>
   </si>
   <si>
-    <t>Female population 80+</t>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
   </si>
   <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
   </si>
   <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
+    <t>Employment in services, male (% of male employment)</t>
   </si>
   <si>
     <t>Age population, age 02, male, interpolated</t>
   </si>
   <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
     <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
-    <t>Age population, age 04, male, interpolated</t>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
     <t>Age population, age 18, male, interpolated</t>
   </si>
   <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
   </si>
   <si>
     <t>Trade (% of GDP)</t>
   </si>
   <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Age population, age 01, female, interpolated</t>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
     <t>Rural population</t>
   </si>
   <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
   </si>
   <si>
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
     <t>Male population 60-64</t>
   </si>
   <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
     <t>Age population, age 19, male, interpolated</t>
   </si>
   <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Age population, age 13, male, interpolated</t>
+    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
   </si>
   <si>
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
   </si>
   <si>
     <t>Age population, age 0, male, interpolated</t>
   </si>
   <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
     <t>Female population 45-49</t>
   </si>
   <si>
     <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
-    <t>Age population, age 20, female, interpolated</t>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
     <t>Time required to start a business, male (days)</t>
@@ -313,154 +598,202 @@
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
     <t>Female population 05-09</t>
   </si>
   <si>
-    <t>Female population 40-44</t>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
   </si>
   <si>
     <t>Male population 05-09</t>
   </si>
   <si>
-    <t>GDP (current US$)</t>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
     <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
     <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 65-69, female (% of female population)</t>
+    <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
     <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
-    <t>Female population 65-69</t>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
     <t>Age population, age 21, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
     <t>Female population 35-39</t>
   </si>
   <si>
-    <t>Unemployment, total (% of total labor force)</t>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
     <t>Male population 35-39</t>
   </si>
   <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
   </si>
   <si>
     <t>Time-related underemployment, female (% of employment)</t>
   </si>
   <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
   </si>
 </sst>
 </file>
@@ -818,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -840,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1767.061536731188</v>
+        <v>2457.35307169059</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -851,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1581.855737210106</v>
+        <v>1664.873174526228</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -862,7 +1195,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>681.1420021725756</v>
+        <v>1629.579937597386</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -873,7 +1206,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>593.0793955177711</v>
+        <v>1483.994221007889</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -884,7 +1217,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>558.8370850765973</v>
+        <v>1268.706164731251</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -895,7 +1228,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>558.8370850765973</v>
+        <v>825.8281753031603</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -906,7 +1239,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>544.7361036725198</v>
+        <v>740.6509762059158</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -917,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>522.2657006923099</v>
+        <v>728.652353251496</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -928,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>502.3041024864478</v>
+        <v>653.0445086108042</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -939,7 +1272,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>478.8830945458716</v>
+        <v>637.288142173138</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -950,7 +1283,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>468.4061264049644</v>
+        <v>622.4740758929978</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -961,7 +1294,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>437.0970239809978</v>
+        <v>619.0000676742468</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -972,7 +1305,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>411.9744841838601</v>
+        <v>609.8729139190726</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -983,7 +1316,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>406.5497984347849</v>
+        <v>599.9438099387875</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -994,7 +1327,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>395.804093447736</v>
+        <v>598.607598367557</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1005,7 +1338,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>384.1249963120096</v>
+        <v>566.2654523637061</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1016,7 +1349,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>381.6782905951077</v>
+        <v>525.3380975993407</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1027,7 +1360,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>369.7850795607226</v>
+        <v>508.4884889874095</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1038,7 +1371,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>356.1411252433622</v>
+        <v>501.5276773251458</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1049,7 +1382,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>320.8668719590947</v>
+        <v>496.0619007539044</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1060,7 +1393,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>309.5532470267368</v>
+        <v>486.1476980121053</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1071,7 +1404,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>305.4439246584733</v>
+        <v>475.0952832726058</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1082,7 +1415,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>288.3053808268873</v>
+        <v>463.0570511145912</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1093,7 +1426,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>254.2453653679225</v>
+        <v>460.1422504430801</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1104,7 +1437,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>242.5203949334213</v>
+        <v>460.1422504430801</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1115,7 +1448,7 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>229.7499897092266</v>
+        <v>458.9592304408986</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1126,7 +1459,7 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>217.9375028234012</v>
+        <v>458.9592304408986</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1137,7 +1470,7 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>215.1981189406964</v>
+        <v>453.190024052757</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1148,7 +1481,7 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>215.0903440948906</v>
+        <v>452.6521532232863</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1159,7 +1492,7 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>211.0130306055844</v>
+        <v>443.7506117010175</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1170,7 +1503,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>206.113521425144</v>
+        <v>442.0574041387592</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1181,7 +1514,7 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>179.7038693297527</v>
+        <v>439.1546561966287</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1192,7 +1525,7 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>173.7642089429585</v>
+        <v>438.6988616798457</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1203,7 +1536,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>172.0899093178443</v>
+        <v>438.6988572674728</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1214,7 +1547,7 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>168.5312876946507</v>
+        <v>438.6988572448861</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1225,7 +1558,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>158.1916740061686</v>
+        <v>438.6988571635713</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1236,7 +1569,7 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>156.621279700845</v>
+        <v>438.6988570057077</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1247,7 +1580,7 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>149.8580709282987</v>
+        <v>438.3637137297931</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1258,7 +1591,7 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>147.2627667162566</v>
+        <v>433.1743986063418</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1269,7 +1602,7 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>145.6385597189223</v>
+        <v>419.9412463866391</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1280,7 +1613,7 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>142.4037538286859</v>
+        <v>409.2325140617233</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1291,7 +1624,7 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>140.9683941956398</v>
+        <v>404.2773248627944</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1302,7 +1635,7 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>140.6583853654059</v>
+        <v>402.4975367036925</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1313,7 +1646,7 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>136.8969628248491</v>
+        <v>402.3487777705204</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1324,7 +1657,7 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>135.3634018248364</v>
+        <v>391.5012952722098</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1335,7 +1668,7 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>133.9919642748748</v>
+        <v>376.3047491226274</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1346,7 +1679,7 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>131.2733334245748</v>
+        <v>362.8327955906959</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1357,7 +1690,7 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>130.5040771511824</v>
+        <v>356.2191641475432</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1368,7 +1701,7 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>128.6388068287757</v>
+        <v>351.3168007534801</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1379,7 +1712,7 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>125.1021864834811</v>
+        <v>321.851216980845</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1390,7 +1723,7 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>124.2495102430501</v>
+        <v>293.6982128800293</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1401,7 +1734,7 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>120.3546942237097</v>
+        <v>293.6982128800293</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1412,7 +1745,7 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>119.8667945598578</v>
+        <v>267.3066761917892</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1423,7 +1756,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>117.6170148871259</v>
+        <v>266.2435535580109</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1434,7 +1767,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>112.5030969173028</v>
+        <v>265.179775293946</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1445,7 +1778,7 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>112.5030969027893</v>
+        <v>261.7081646599212</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1456,7 +1789,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>110.6076207828881</v>
+        <v>254.5072341642884</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1467,7 +1800,7 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>97.84629755958605</v>
+        <v>240.1418829443726</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1478,7 +1811,7 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>97.59766607229966</v>
+        <v>238.6739972453728</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1489,7 +1822,7 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>93.70114045559345</v>
+        <v>236.633210064228</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1500,7 +1833,7 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>91.67738107873362</v>
+        <v>236.0762356005733</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1511,7 +1844,7 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>85.41015771510385</v>
+        <v>231.4416681664525</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1522,7 +1855,7 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>84.5269694325729</v>
+        <v>228.5222859823267</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1533,7 +1866,7 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>76.95464810724528</v>
+        <v>219.1227719645211</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1544,7 +1877,7 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>76.10402914401401</v>
+        <v>218.8564836073512</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1555,7 +1888,7 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>74.57210422122718</v>
+        <v>216.0787613420831</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1566,7 +1899,7 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>72.79688543656448</v>
+        <v>210.8256304912209</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1577,7 +1910,7 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>70.69104259401084</v>
+        <v>207.7198375407956</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1588,7 +1921,7 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>70.67288246753651</v>
+        <v>206.1241501257132</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1599,7 +1932,7 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>70.67288246753651</v>
+        <v>200.7833611128036</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1610,7 +1943,7 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>66.65125656033601</v>
+        <v>190.482897119281</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1621,7 +1954,7 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>63.42524263770044</v>
+        <v>189.7632829271797</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1632,7 +1965,7 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>61.98665050367221</v>
+        <v>189.1349019732743</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1643,7 +1976,7 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>61.66962099795597</v>
+        <v>188.794442777451</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1654,10 +1987,10 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>59.85476207336085</v>
+        <v>187.1225072882457</v>
       </c>
       <c r="C76">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1665,10 +1998,10 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>56.35894987607939</v>
+        <v>186.801226937294</v>
       </c>
       <c r="C77">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1676,10 +2009,10 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>50.81619590002475</v>
+        <v>186.717064142461</v>
       </c>
       <c r="C78">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1687,10 +2020,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>49.65121552837635</v>
+        <v>180.9290442709253</v>
       </c>
       <c r="C79">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1698,10 +2031,10 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>49.41922805188898</v>
+        <v>179.7491294399206</v>
       </c>
       <c r="C80">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1709,10 +2042,10 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>49.13123543609465</v>
+        <v>175.0383262827432</v>
       </c>
       <c r="C81">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1720,10 +2053,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>48.04765448778704</v>
+        <v>174.8666433833352</v>
       </c>
       <c r="C82">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1731,10 +2064,10 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>46.62801318624278</v>
+        <v>174.3998777687594</v>
       </c>
       <c r="C83">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1742,10 +2075,10 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>46.54378159442138</v>
+        <v>174.3998777632599</v>
       </c>
       <c r="C84">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1753,10 +2086,10 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>39.72732093882416</v>
+        <v>172.0430901390562</v>
       </c>
       <c r="C85">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1764,10 +2097,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>39.14429527183746</v>
+        <v>166.0412621018901</v>
       </c>
       <c r="C86">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1775,10 +2108,10 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>37.87861524360397</v>
+        <v>165.8509440826647</v>
       </c>
       <c r="C87">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1786,10 +2119,10 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>37.87861524360397</v>
+        <v>164.3990556312824</v>
       </c>
       <c r="C88">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1797,10 +2130,10 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>37.72381915779749</v>
+        <v>163.7871835153201</v>
       </c>
       <c r="C89">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1808,10 +2141,10 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>34.16873092255858</v>
+        <v>156.429288055851</v>
       </c>
       <c r="C90">
-        <v>8.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1819,10 +2152,10 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>32.49706127744473</v>
+        <v>155.8438101219303</v>
       </c>
       <c r="C91">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1830,10 +2163,10 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>32.31901192965357</v>
+        <v>155.660548682469</v>
       </c>
       <c r="C92">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1841,10 +2174,10 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>32.01043183321816</v>
+        <v>150.2676703846346</v>
       </c>
       <c r="C93">
-        <v>0.00011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1852,10 +2185,10 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>31.8176904950861</v>
+        <v>142.5407686174652</v>
       </c>
       <c r="C94">
-        <v>0.00011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1863,10 +2196,10 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>31.6504456257042</v>
+        <v>138.1870782246345</v>
       </c>
       <c r="C95">
-        <v>0.00011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1874,10 +2207,10 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>31.59086673181025</v>
+        <v>129.6575507444319</v>
       </c>
       <c r="C96">
-        <v>0.00011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1885,10 +2218,10 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>31.59086673181025</v>
+        <v>126.8607954568666</v>
       </c>
       <c r="C97">
-        <v>0.00011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1896,10 +2229,10 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>31.36516943875478</v>
+        <v>125.6339371164592</v>
       </c>
       <c r="C98">
-        <v>0.00012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1907,10 +2240,10 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>31.02335390250743</v>
+        <v>124.1522777915353</v>
       </c>
       <c r="C99">
-        <v>0.00012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1918,10 +2251,10 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>30.76530345258197</v>
+        <v>123.5210155610266</v>
       </c>
       <c r="C100">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1929,10 +2262,10 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>30.717861181628</v>
+        <v>122.2347342352609</v>
       </c>
       <c r="C101">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1940,10 +2273,10 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>28.91337649184671</v>
+        <v>119.790165604758</v>
       </c>
       <c r="C102">
-        <v>0.00017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1951,10 +2284,10 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>28.73185705746627</v>
+        <v>118.5748577860081</v>
       </c>
       <c r="C103">
-        <v>0.00017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1962,10 +2295,10 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>28.10396294367317</v>
+        <v>113.5907867900326</v>
       </c>
       <c r="C104">
-        <v>0.00019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1973,10 +2306,10 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>27.9760509112236</v>
+        <v>113.3309186249547</v>
       </c>
       <c r="C105">
-        <v>0.00019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1984,10 +2317,10 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>25.74827795533369</v>
+        <v>109.7406777065852</v>
       </c>
       <c r="C106">
-        <v>0.00027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1995,10 +2328,10 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>25.21729831442365</v>
+        <v>105.6752591205044</v>
       </c>
       <c r="C107">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2006,10 +2339,10 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>24.56910645573713</v>
+        <v>104.2481538282842</v>
       </c>
       <c r="C108">
-        <v>0.00033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2017,10 +2350,10 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>23.6111849846436</v>
+        <v>96.66770074457787</v>
       </c>
       <c r="C109">
-        <v>0.00039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2028,10 +2361,10 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>22.86098879186229</v>
+        <v>96.66770074457787</v>
       </c>
       <c r="C110">
-        <v>0.00045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2039,10 +2372,10 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>22.07207912762544</v>
+        <v>95.95721514264768</v>
       </c>
       <c r="C111">
-        <v>0.00052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2050,10 +2383,10 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>21.82056620579256</v>
+        <v>91.25319067783811</v>
       </c>
       <c r="C112">
-        <v>0.00054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2061,10 +2394,10 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>21.58472285546542</v>
+        <v>83.11132606672332</v>
       </c>
       <c r="C113">
-        <v>0.00056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2072,10 +2405,10 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>21.31500658771534</v>
+        <v>82.77393574759354</v>
       </c>
       <c r="C114">
-        <v>0.00059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2083,10 +2416,10 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>21.25074638556725</v>
+        <v>82.27736617149439</v>
       </c>
       <c r="C115">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2094,10 +2427,10 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>21.25074638556725</v>
+        <v>78.8192619869392</v>
       </c>
       <c r="C116">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2105,10 +2438,10 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>21.23950384823941</v>
+        <v>77.13820187897701</v>
       </c>
       <c r="C117">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2116,10 +2449,10 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>21.23950384823941</v>
+        <v>76.10969127886412</v>
       </c>
       <c r="C118">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2127,10 +2460,10 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>20.79783589621854</v>
+        <v>75.38254897508783</v>
       </c>
       <c r="C119">
-        <v>0.00065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2138,10 +2471,10 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>20.79094427236563</v>
+        <v>74.98646456460671</v>
       </c>
       <c r="C120">
-        <v>0.00066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2149,10 +2482,10 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>20.79094427236563</v>
+        <v>70.03062475213002</v>
       </c>
       <c r="C121">
-        <v>0.00066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2160,10 +2493,10 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>20.78683541975258</v>
+        <v>62.6108521078672</v>
       </c>
       <c r="C122">
-        <v>0.00066</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2171,10 +2504,10 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>19.88333210195524</v>
+        <v>61.69664952431207</v>
       </c>
       <c r="C123">
-        <v>0.00078</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2182,10 +2515,10 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>18.71358746211583</v>
+        <v>61.69664952431207</v>
       </c>
       <c r="C124">
-        <v>0.00099</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2193,10 +2526,10 @@
         <v>126</v>
       </c>
       <c r="B125">
-        <v>18.08456970337426</v>
+        <v>60.98024266889041</v>
       </c>
       <c r="C125">
-        <v>0.00112</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2204,10 +2537,10 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>17.17649041699065</v>
+        <v>60.51146416300113</v>
       </c>
       <c r="C126">
-        <v>0.00136</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2215,10 +2548,10 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>16.52000843805603</v>
+        <v>59.8429274125765</v>
       </c>
       <c r="C127">
-        <v>0.00157</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2226,10 +2559,10 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>16.4665697530354</v>
+        <v>57.60231824942556</v>
       </c>
       <c r="C128">
-        <v>0.00159</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2237,10 +2570,10 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>15.79992183087388</v>
+        <v>55.96421648939186</v>
       </c>
       <c r="C129">
-        <v>0.00184</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2248,10 +2581,10 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>15.56448957119508</v>
+        <v>54.66355061502664</v>
       </c>
       <c r="C130">
-        <v>0.00194</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2259,10 +2592,10 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>15.33404955744883</v>
+        <v>54.17811316387643</v>
       </c>
       <c r="C131">
-        <v>0.00205</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2270,10 +2603,10 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>15.15224283829948</v>
+        <v>53.25568091996794</v>
       </c>
       <c r="C132">
-        <v>0.00214</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2281,10 +2614,10 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>14.1162824194475</v>
+        <v>53.23732518883152</v>
       </c>
       <c r="C133">
-        <v>0.00274</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2292,10 +2625,10 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>13.09920140807415</v>
+        <v>51.64420242053718</v>
       </c>
       <c r="C134">
-        <v>0.00352</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2303,10 +2636,10 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>13.09920140380318</v>
+        <v>51.27214582076985</v>
       </c>
       <c r="C135">
-        <v>0.00352</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2314,10 +2647,10 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>12.0752388158865</v>
+        <v>51.27134182279469</v>
       </c>
       <c r="C136">
-        <v>0.00459</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2325,10 +2658,10 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>12.0752388158865</v>
+        <v>51.27134182279469</v>
       </c>
       <c r="C137">
-        <v>0.00459</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2336,10 +2669,10 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>11.91000242897544</v>
+        <v>46.95366439387193</v>
       </c>
       <c r="C138">
-        <v>0.0048</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2347,10 +2680,10 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>11.85467589009954</v>
+        <v>43.35406886434508</v>
       </c>
       <c r="C139">
-        <v>0.00487</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2358,10 +2691,10 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>11.85413659983496</v>
+        <v>42.81035729405762</v>
       </c>
       <c r="C140">
-        <v>0.00487</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2369,10 +2702,10 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>11.82847450794426</v>
+        <v>42.05956780114755</v>
       </c>
       <c r="C141">
-        <v>0.0049</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2380,10 +2713,10 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>11.82217744243419</v>
+        <v>42.05557427274418</v>
       </c>
       <c r="C142">
-        <v>0.00491</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2391,10 +2724,10 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>11.29054000251973</v>
+        <v>40.92754241240679</v>
       </c>
       <c r="C143">
-        <v>0.00567</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2402,10 +2735,10 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>11.29054000251973</v>
+        <v>40.34545144404287</v>
       </c>
       <c r="C144">
-        <v>0.00567</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2413,10 +2746,10 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>11.19867122977436</v>
+        <v>40.28603471949629</v>
       </c>
       <c r="C145">
-        <v>0.00582</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2424,10 +2757,10 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>10.83899100010595</v>
+        <v>40.19034885872279</v>
       </c>
       <c r="C146">
-        <v>0.00643</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2435,10 +2768,1231 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>9.618494482746961</v>
+        <v>39.87613817618312</v>
       </c>
       <c r="C147">
-        <v>0.009169999999999999</v>
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148">
+        <v>39.58999232009434</v>
+      </c>
+      <c r="C148">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149">
+        <v>39.46499065657432</v>
+      </c>
+      <c r="C149">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150">
+        <v>39.45217000125402</v>
+      </c>
+      <c r="C150">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151">
+        <v>39.41358387916236</v>
+      </c>
+      <c r="C151">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152">
+        <v>39.18231502412765</v>
+      </c>
+      <c r="C152">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153">
+        <v>38.13229357112914</v>
+      </c>
+      <c r="C153">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154">
+        <v>37.73712623124817</v>
+      </c>
+      <c r="C154">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155">
+        <v>36.57890926227398</v>
+      </c>
+      <c r="C155">
+        <v>8.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156">
+        <v>36.54853874449552</v>
+      </c>
+      <c r="C156">
+        <v>8.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157">
+        <v>35.94599139646596</v>
+      </c>
+      <c r="C157">
+        <v>9.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158">
+        <v>34.96506471433554</v>
+      </c>
+      <c r="C158">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159">
+        <v>34.89897280577019</v>
+      </c>
+      <c r="C159">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160">
+        <v>34.59604743491046</v>
+      </c>
+      <c r="C160">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161">
+        <v>34.55937441325099</v>
+      </c>
+      <c r="C161">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162">
+        <v>34.45530917332501</v>
+      </c>
+      <c r="C162">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163">
+        <v>32.69392827806124</v>
+      </c>
+      <c r="C163">
+        <v>0.00013</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164">
+        <v>32.62359397333613</v>
+      </c>
+      <c r="C164">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165">
+        <v>31.4212862061572</v>
+      </c>
+      <c r="C165">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166">
+        <v>31.08573529563019</v>
+      </c>
+      <c r="C166">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167">
+        <v>30.76476954623487</v>
+      </c>
+      <c r="C167">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168">
+        <v>29.74581471897816</v>
+      </c>
+      <c r="C168">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169">
+        <v>29.44326934056736</v>
+      </c>
+      <c r="C169">
+        <v>0.00021</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170">
+        <v>28.92233040869241</v>
+      </c>
+      <c r="C170">
+        <v>0.00022</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171">
+        <v>28.40297347903625</v>
+      </c>
+      <c r="C171">
+        <v>0.00024</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172">
+        <v>28.29277547695029</v>
+      </c>
+      <c r="C172">
+        <v>0.00025</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173">
+        <v>28.27969438713003</v>
+      </c>
+      <c r="C173">
+        <v>0.00025</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174">
+        <v>28.07004717631488</v>
+      </c>
+      <c r="C174">
+        <v>0.00025</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175">
+        <v>27.48068316253453</v>
+      </c>
+      <c r="C175">
+        <v>0.00028</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176">
+        <v>26.96219381103393</v>
+      </c>
+      <c r="C176">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177">
+        <v>26.86010775814963</v>
+      </c>
+      <c r="C177">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178">
+        <v>26.81439521220955</v>
+      </c>
+      <c r="C178">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179">
+        <v>26.6376338278486</v>
+      </c>
+      <c r="C179">
+        <v>0.00031</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180">
+        <v>26.37534963044911</v>
+      </c>
+      <c r="C180">
+        <v>0.00033</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181">
+        <v>26.24185646846833</v>
+      </c>
+      <c r="C181">
+        <v>0.00033</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182">
+        <v>26.13736891663843</v>
+      </c>
+      <c r="C182">
+        <v>0.00034</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183">
+        <v>26.08600642201155</v>
+      </c>
+      <c r="C183">
+        <v>0.00034</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184">
+        <v>25.9756318422626</v>
+      </c>
+      <c r="C184">
+        <v>0.00035</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185">
+        <v>25.85458879777305</v>
+      </c>
+      <c r="C185">
+        <v>0.00035</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186">
+        <v>25.75119754409653</v>
+      </c>
+      <c r="C186">
+        <v>0.00036</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187">
+        <v>25.67253258368512</v>
+      </c>
+      <c r="C187">
+        <v>0.00036</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188">
+        <v>25.45019250003232</v>
+      </c>
+      <c r="C188">
+        <v>0.00038</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189">
+        <v>25.19700930978868</v>
+      </c>
+      <c r="C189">
+        <v>0.00039</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190">
+        <v>25.1036891009035</v>
+      </c>
+      <c r="C190">
+        <v>0.0004</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191">
+        <v>24.79219344998481</v>
+      </c>
+      <c r="C191">
+        <v>0.00042</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192">
+        <v>24.79219344998481</v>
+      </c>
+      <c r="C192">
+        <v>0.00042</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193">
+        <v>23.94456248743282</v>
+      </c>
+      <c r="C193">
+        <v>0.00048</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194">
+        <v>23.87429928164956</v>
+      </c>
+      <c r="C194">
+        <v>0.00048</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195">
+        <v>23.80683091427283</v>
+      </c>
+      <c r="C195">
+        <v>0.00049</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196">
+        <v>23.78538464206748</v>
+      </c>
+      <c r="C196">
+        <v>0.00049</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197">
+        <v>23.17055554241711</v>
+      </c>
+      <c r="C197">
+        <v>0.00054</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198">
+        <v>23.07564338682138</v>
+      </c>
+      <c r="C198">
+        <v>0.00055</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199">
+        <v>22.68671187974168</v>
+      </c>
+      <c r="C199">
+        <v>0.00059</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200">
+        <v>22.68671187974168</v>
+      </c>
+      <c r="C200">
+        <v>0.00059</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201">
+        <v>22.37242921794312</v>
+      </c>
+      <c r="C201">
+        <v>0.00062</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202">
+        <v>22.30816647090376</v>
+      </c>
+      <c r="C202">
+        <v>0.00063</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203">
+        <v>22.23999500863625</v>
+      </c>
+      <c r="C203">
+        <v>0.00063</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204">
+        <v>22.0840308167494</v>
+      </c>
+      <c r="C204">
+        <v>0.00065</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205">
+        <v>22.05561687744331</v>
+      </c>
+      <c r="C205">
+        <v>0.00065</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206">
+        <v>21.83244769878059</v>
+      </c>
+      <c r="C206">
+        <v>0.00068</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207">
+        <v>21.65535135089757</v>
+      </c>
+      <c r="C207">
+        <v>0.0007</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208">
+        <v>21.45546862958629</v>
+      </c>
+      <c r="C208">
+        <v>0.00073</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209">
+        <v>20.92152625460645</v>
+      </c>
+      <c r="C209">
+        <v>0.0008</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210">
+        <v>20.53699901938573</v>
+      </c>
+      <c r="C210">
+        <v>0.00086</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211">
+        <v>20.53699901936626</v>
+      </c>
+      <c r="C211">
+        <v>0.00086</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212">
+        <v>20.27267058692155</v>
+      </c>
+      <c r="C212">
+        <v>0.0009</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213">
+        <v>19.92130737680688</v>
+      </c>
+      <c r="C213">
+        <v>0.00096</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214">
+        <v>19.87413647952148</v>
+      </c>
+      <c r="C214">
+        <v>0.0009700000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215">
+        <v>19.87413647952148</v>
+      </c>
+      <c r="C215">
+        <v>0.0009700000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216">
+        <v>18.94324620116955</v>
+      </c>
+      <c r="C216">
+        <v>0.00115</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217">
+        <v>18.50052701582747</v>
+      </c>
+      <c r="C217">
+        <v>0.00125</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218">
+        <v>18.50052701582747</v>
+      </c>
+      <c r="C218">
+        <v>0.00125</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219">
+        <v>17.6901779317319</v>
+      </c>
+      <c r="C219">
+        <v>0.00147</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220">
+        <v>17.5907519014353</v>
+      </c>
+      <c r="C220">
+        <v>0.0015</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221">
+        <v>17.26956345787995</v>
+      </c>
+      <c r="C221">
+        <v>0.0016</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222">
+        <v>17.06449193877434</v>
+      </c>
+      <c r="C222">
+        <v>0.00167</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223">
+        <v>16.95464126038859</v>
+      </c>
+      <c r="C223">
+        <v>0.00171</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224">
+        <v>16.69987240076043</v>
+      </c>
+      <c r="C224">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225">
+        <v>16.69987239822476</v>
+      </c>
+      <c r="C225">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226">
+        <v>16.40833304788111</v>
+      </c>
+      <c r="C226">
+        <v>0.00191</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227">
+        <v>16.40833304788111</v>
+      </c>
+      <c r="C227">
+        <v>0.00191</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228">
+        <v>15.37131108195986</v>
+      </c>
+      <c r="C228">
+        <v>0.00239</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229">
+        <v>15.21156367770781</v>
+      </c>
+      <c r="C229">
+        <v>0.00248</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230">
+        <v>15.09901552629343</v>
+      </c>
+      <c r="C230">
+        <v>0.00254</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231">
+        <v>15.09507949201899</v>
+      </c>
+      <c r="C231">
+        <v>0.00254</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232">
+        <v>13.7080166159527</v>
+      </c>
+      <c r="C232">
+        <v>0.00349</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233">
+        <v>13.65171136222471</v>
+      </c>
+      <c r="C233">
+        <v>0.00353</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234">
+        <v>13.18934487529912</v>
+      </c>
+      <c r="C234">
+        <v>0.00394</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235">
+        <v>12.91159412434147</v>
+      </c>
+      <c r="C235">
+        <v>0.00422</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236">
+        <v>12.81275847888289</v>
+      </c>
+      <c r="C236">
+        <v>0.00432</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237">
+        <v>12.79744069578883</v>
+      </c>
+      <c r="C237">
+        <v>0.00434</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238">
+        <v>12.51088605742961</v>
+      </c>
+      <c r="C238">
+        <v>0.00466</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239">
+        <v>12.48657801124484</v>
+      </c>
+      <c r="C239">
+        <v>0.00468</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240">
+        <v>12.47949011419814</v>
+      </c>
+      <c r="C240">
+        <v>0.00469</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241">
+        <v>12.32540426787844</v>
+      </c>
+      <c r="C241">
+        <v>0.00488</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242">
+        <v>12.05462142908745</v>
+      </c>
+      <c r="C242">
+        <v>0.00522</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243">
+        <v>11.89174466584656</v>
+      </c>
+      <c r="C243">
+        <v>0.00544</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244">
+        <v>11.83984069256364</v>
+      </c>
+      <c r="C244">
+        <v>0.00552</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245">
+        <v>11.78303033730342</v>
+      </c>
+      <c r="C245">
+        <v>0.0056</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246">
+        <v>11.71041419908343</v>
+      </c>
+      <c r="C246">
+        <v>0.0057</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247">
+        <v>11.58037840239307</v>
+      </c>
+      <c r="C247">
+        <v>0.0059</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248">
+        <v>11.36709656080121</v>
+      </c>
+      <c r="C248">
+        <v>0.00624</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249">
+        <v>11.29365763976704</v>
+      </c>
+      <c r="C249">
+        <v>0.00636</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250">
+        <v>11.24287618582255</v>
+      </c>
+      <c r="C250">
+        <v>0.00644</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251">
+        <v>10.92740705084591</v>
+      </c>
+      <c r="C251">
+        <v>0.00701</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252">
+        <v>10.71396108782363</v>
+      </c>
+      <c r="C252">
+        <v>0.00742</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253">
+        <v>10.68642592410825</v>
+      </c>
+      <c r="C253">
+        <v>0.00748</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254">
+        <v>10.46004730872396</v>
+      </c>
+      <c r="C254">
+        <v>0.00796</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255">
+        <v>10.27817449307907</v>
+      </c>
+      <c r="C255">
+        <v>0.008370000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256">
+        <v>10.15362826150313</v>
+      </c>
+      <c r="C256">
+        <v>0.008659999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257">
+        <v>9.800151669304428</v>
+      </c>
+      <c r="C257">
+        <v>0.00957</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258">
+        <v>9.687903059175532</v>
+      </c>
+      <c r="C258">
+        <v>0.00988</v>
       </c>
     </row>
   </sheetData>
